--- a/ssm/src/main/sql/数据库表结构-命名.xlsx
+++ b/ssm/src/main/sql/数据库表结构-命名.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,11 +97,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有效期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已接单</t>
+    <t>接单人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,139 +189,324 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接单人id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接单时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>订单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：mysql中user是关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>start_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valid</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>photo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rofile</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>uphone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uidnumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uimage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uphotopath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>did</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isvalid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isfinish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ttime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在这一个表中保存服务类和需求类订单，表中的字段是两种字段的并集。</t>
+    <t>ophone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发单人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>release</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uid</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名用“_”分割，会自动在对象中映射为startTime,驼峰命名。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：对象的起名和表名相同，属性名和字段名相同，将“_”修改为驼峰命名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：所有表不做硬外键映射，主外键映射关系在代码中用逻辑控制。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,8 +536,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,7 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,23 +583,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -633,319 +910,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:P30"/>
+  <dimension ref="A3:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:H22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="F4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="M4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
+      <c r="K6" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>43</v>
+      <c r="H17" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>44</v>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="K18" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="F20" s="2"/>
+      <c r="K20" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="6"/>
+      <c r="F21" s="3"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="30" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="31" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="J23:P25"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="F22:H22"/>
+  <mergeCells count="3">
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="J24:P26"/>
+    <mergeCell ref="J21:M21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ssm/src/main/sql/数据库表结构-命名.xlsx
+++ b/ssm/src/main/sql/数据库表结构-命名.xlsx
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cuser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,6 +503,10 @@
   </si>
   <si>
     <t>注：所有表不做硬外键映射，主外键映射关系在代码中用逻辑控制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,16 +592,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -913,7 +913,7 @@
   <dimension ref="A3:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -947,12 +947,12 @@
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>45</v>
+      <c r="A4" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="F4" s="8" t="s">
-        <v>44</v>
+      <c r="F4" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -960,8 +960,8 @@
         <v>32</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="M4" s="10" t="s">
-        <v>47</v>
+      <c r="M4" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="N4" s="5"/>
     </row>
@@ -977,8 +977,8 @@
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>48</v>
+      <c r="H5" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -987,11 +987,11 @@
       <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -999,8 +999,8 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>57</v>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
@@ -1010,8 +1010,8 @@
         <v>23</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="8" t="s">
-        <v>62</v>
+      <c r="K6" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>34</v>
@@ -1028,8 +1028,8 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>53</v>
+      <c r="C7" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
@@ -1048,8 +1048,8 @@
       <c r="M7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>67</v>
+      <c r="N7" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1057,8 +1057,8 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>52</v>
+      <c r="C8" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
@@ -1071,8 +1071,8 @@
       <c r="K8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>61</v>
+      <c r="L8" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1080,22 +1080,22 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>51</v>
+      <c r="C9" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>49</v>
+      <c r="H9" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1103,15 +1103,15 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>54</v>
+      <c r="C10" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>59</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1121,8 +1121,8 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>55</v>
+      <c r="C11" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
@@ -1151,8 +1151,8 @@
       <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>56</v>
+      <c r="C13" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
@@ -1167,13 +1167,13 @@
       <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>58</v>
+      <c r="H14" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>46</v>
+      <c r="A15" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B15" s="4"/>
       <c r="F15" s="2"/>
@@ -1183,8 +1183,8 @@
       <c r="H15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>68</v>
+      <c r="K15" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1205,16 +1205,16 @@
       <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>50</v>
+      <c r="H17" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="F18" s="2"/>
-      <c r="K18" s="11" t="s">
-        <v>69</v>
+      <c r="K18" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1226,48 +1226,48 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="F20" s="2"/>
-      <c r="K20" s="11" t="s">
-        <v>70</v>
+      <c r="K20" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="6"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="3"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="6"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/ssm/src/main/sql/数据库表结构-命名.xlsx
+++ b/ssm/src/main/sql/数据库表结构-命名.xlsx
@@ -351,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ophone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>end</t>
     </r>
@@ -507,6 +503,10 @@
   </si>
   <si>
     <t>Corder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ophoto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +913,7 @@
   <dimension ref="A3:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -952,7 +952,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="F4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -988,10 +988,10 @@
         <v>33</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>34</v>
@@ -1049,7 +1049,7 @@
         <v>41</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1092,10 +1092,10 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1108,10 +1108,10 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1168,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
         <v>29</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
       <c r="B18" s="4"/>
       <c r="F18" s="2"/>
       <c r="K18" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
       <c r="B20" s="4"/>
       <c r="F20" s="2"/>
       <c r="K20" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
